--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-762922.4707875018</v>
+        <v>-719458.5455426202</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17416836.60718618</v>
+        <v>16774535.54843888</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9595115.614314355</v>
+        <v>9614004.338924101</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>389.0981363245662</v>
       </c>
       <c r="C2" t="n">
-        <v>145.7919596414152</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>125.6544692828921</v>
       </c>
       <c r="U4" t="n">
-        <v>180.1869135224759</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>392.0383104905237</v>
       </c>
       <c r="D5" t="n">
-        <v>68.94999416853804</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1060,10 +1060,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>151.2896809263498</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1102,7 +1102,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>136.7109936123697</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>219.0949503145306</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.7394746932341</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>152.5167218209441</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>34.7181121725785</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>367.1563416926712</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>234.6608961169258</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>268.2778764369037</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629696</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.3082548690714</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948857</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655126</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.30825486907117</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>161.0723471410718</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633443</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.55329631631068</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068459</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>98.3438513309567</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.8284742946039</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2713,13 +2713,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>31.24391673888175</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>28.46824604904451</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>174.7843174058455</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>155.7199792756556</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>149.1030977445408</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>152.9443085858184</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>159.8238683719096</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>148.8192470984789</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>123.3870374405775</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>72.65723460711973</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934157</v>
+        <v>6.087527955730154</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>142.5328398890316</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>201.6124912821579</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>260.532555613474</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>268.9698379223221</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>254.1900252436197</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>227.82172199397</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>210.0293588530811</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3673,13 +3673,13 @@
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856837</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277822</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934476</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3913,10 +3913,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277822</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934888</v>
+        <v>4.967932742934476</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>668.0368528135841</v>
+        <v>866.1045910388293</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>832.0025222626567</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W2" t="n">
-        <v>709.6437982983157</v>
+        <v>2086.56159868973</v>
       </c>
       <c r="X2" t="n">
-        <v>694.5417389180304</v>
+        <v>1667.419135269041</v>
       </c>
       <c r="Y2" t="n">
-        <v>690.2960192580879</v>
+        <v>1259.133011568694</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.9233330929708</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>292.3616215761957</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>292.3616215761957</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2362.477930088441</v>
       </c>
       <c r="U4" t="n">
-        <v>1269.297000302836</v>
+        <v>2084.044929341546</v>
       </c>
       <c r="V4" t="n">
-        <v>982.3414921732667</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W4" t="n">
-        <v>710.3150877595583</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>464.9233330929708</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>464.9233330929708</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1395.53913136414</v>
+        <v>1340.268492507381</v>
       </c>
       <c r="C5" t="n">
-        <v>1361.437062587967</v>
+        <v>944.2701990826092</v>
       </c>
       <c r="D5" t="n">
-        <v>1291.790603831868</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>1437.146076848872</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.044017468586</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y5" t="n">
-        <v>1417.798297808644</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>854.5838762389023</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C7" t="n">
-        <v>682.0221647221273</v>
+        <v>847.3485218817319</v>
       </c>
       <c r="D7" t="n">
-        <v>516.14417192365</v>
+        <v>681.4705290832546</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>511.7125253339919</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>538.7332355342593</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.673696046022</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1291.794249624477</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1291.794249624477</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V7" t="n">
-        <v>1291.794249624477</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W7" t="n">
-        <v>1291.794249624477</v>
+        <v>1684.540277469973</v>
       </c>
       <c r="X7" t="n">
-        <v>1046.40249495789</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y7" t="n">
-        <v>1046.40249495789</v>
+        <v>1211.728852117494</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>565.9123557204082</v>
+        <v>1860.981476291556</v>
       </c>
       <c r="C8" t="n">
-        <v>531.8102869442355</v>
+        <v>1826.879407515383</v>
       </c>
       <c r="D8" t="n">
-        <v>95.90050211868001</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>66.16616131737925</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>42.33913576699104</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>42.33913576699104</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>42.33913576699104</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>42.33913576699104</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>477.593823219909</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>477.593823219909</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>477.593823219909</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>477.593823219909</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>477.593823219909</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1001.540628336423</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1525.487433452937</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.434238569451</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2116.956788349552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2116.956788349552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2116.956788349552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2116.956788349552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2116.956788349552</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1712.101333760585</v>
+        <v>2306.628825816691</v>
       </c>
       <c r="X8" t="n">
-        <v>1292.958870339896</v>
+        <v>2291.526766436406</v>
       </c>
       <c r="Y8" t="n">
-        <v>992.211926205316</v>
+        <v>2287.281046776464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.5108807582839</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>442.0544195949261</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>346.9641307414794</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>252.8437160684331</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>169.4598776845947</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>84.07478795077857</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>42.33913576699104</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>68.40280892744865</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>392.961133893661</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>392.961133893661</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>540.512508918432</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>540.512508918432</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>540.512508918432</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>540.512508918432</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.459314034946</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1588.40611915146</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1705.5788972458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1642.123459694183</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1511.944816024785</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1335.608269024753</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1136.490751086752</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>951.1679968199462</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>796.3005610588262</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.814781838047</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>940.1053124240677</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>767.5436009072927</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>601.6656081088154</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>447.608313340185</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>270.9012593019412</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>270.9012593019412</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>130.9990849923157</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>42.33913576699104</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>128.9188209316809</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>403.6772755028165</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>821.8871572707776</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1281.371024451691</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1281.371024451691</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1601.257119514878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1948.764013485219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2116.956788349552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2095.538967054924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1936.29759835292</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1936.29759835292</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1936.29759835292</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V10" t="n">
-        <v>1649.342090223351</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>1377.315685809642</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X10" t="n">
-        <v>1131.923931143055</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1131.923931143055</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1993.990138389146</v>
+        <v>2207.79636139845</v>
       </c>
       <c r="C11" t="n">
-        <v>1993.990138389146</v>
+        <v>1769.653888581873</v>
       </c>
       <c r="D11" t="n">
-        <v>1623.125146780387</v>
+        <v>1333.744103756318</v>
       </c>
       <c r="E11" t="n">
-        <v>1189.350401938682</v>
+        <v>899.9693589146128</v>
       </c>
       <c r="F11" t="n">
-        <v>761.4829723478898</v>
+        <v>472.1019293238206</v>
       </c>
       <c r="G11" t="n">
-        <v>360.0851409711538</v>
+        <v>70.70409794708446</v>
       </c>
       <c r="H11" t="n">
-        <v>70.95498641437003</v>
+        <v>70.70409794708446</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151003</v>
+        <v>70.70409794708446</v>
       </c>
       <c r="J11" t="n">
-        <v>70.53819704151003</v>
+        <v>505.9587854000023</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2808145061372</v>
+        <v>505.9587854000023</v>
       </c>
       <c r="L11" t="n">
-        <v>1279.191002894824</v>
+        <v>505.9587854000023</v>
       </c>
       <c r="M11" t="n">
-        <v>1279.191002894824</v>
+        <v>505.9587854000023</v>
       </c>
       <c r="N11" t="n">
-        <v>1279.191002894824</v>
+        <v>1116.278959714005</v>
       </c>
       <c r="O11" t="n">
-        <v>2152.10119128351</v>
+        <v>1991.242171809175</v>
       </c>
       <c r="P11" t="n">
-        <v>2980.411066116907</v>
+        <v>2819.552046642571</v>
       </c>
       <c r="Q11" t="n">
-        <v>3526.909852075501</v>
+        <v>3366.050832601166</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075501</v>
+        <v>3535.204897354223</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259338</v>
+        <v>3535.204897354223</v>
       </c>
       <c r="T11" t="n">
-        <v>3443.257978259338</v>
+        <v>3535.204897354223</v>
       </c>
       <c r="U11" t="n">
-        <v>3184.035675576355</v>
+        <v>3275.98259467124</v>
       </c>
       <c r="V11" t="n">
-        <v>2821.418725510182</v>
+        <v>3275.98259467124</v>
       </c>
       <c r="W11" t="n">
-        <v>2821.418725510182</v>
+        <v>2871.127140082273</v>
       </c>
       <c r="X11" t="n">
-        <v>2402.276262089492</v>
+        <v>2634.095931883357</v>
       </c>
       <c r="Y11" t="n">
-        <v>1993.990138389146</v>
+        <v>2634.095931883357</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328028</v>
+        <v>576.8758429383772</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694451</v>
+        <v>470.4193817750195</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159984</v>
+        <v>375.3290929215728</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429521</v>
+        <v>281.2086782485265</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591137</v>
+        <v>197.8248398646881</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252976</v>
+        <v>112.439750130872</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151003</v>
+        <v>70.70409794708446</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196763</v>
+        <v>96.76777110754206</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681799</v>
+        <v>421.3260960737543</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>1076.032142699478</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>1076.032142699478</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>1076.032142699478</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>1076.032142699478</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>1076.032142699478</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1076.032142699478</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1616.771081331554</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1733.943859425893</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1670.488421874276</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1540.309778204878</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1363.973231204846</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1164.855713266846</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944652</v>
+        <v>979.5329590000397</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333452</v>
+        <v>824.6655232389196</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.013843112566</v>
+        <v>698.1797440181404</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.8893036151474</v>
+        <v>921.2001350240156</v>
       </c>
       <c r="C13" t="n">
-        <v>800.3275920983724</v>
+        <v>748.6384235072405</v>
       </c>
       <c r="D13" t="n">
-        <v>634.4495992998952</v>
+        <v>582.7604307087634</v>
       </c>
       <c r="E13" t="n">
-        <v>464.6915955506325</v>
+        <v>413.0024269595006</v>
       </c>
       <c r="F13" t="n">
-        <v>464.6915955506325</v>
+        <v>236.2953729212568</v>
       </c>
       <c r="G13" t="n">
-        <v>299.1003205764601</v>
+        <v>70.70409794708439</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1981462668347</v>
+        <v>70.70409794708446</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151003</v>
+        <v>70.70409794708446</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822061999</v>
+        <v>157.2837831117743</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773355</v>
+        <v>432.0422376829099</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452966</v>
+        <v>850.252119450871</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1309.735986631784</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1751.994789789429</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2171.66403901521</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2519.170932985552</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.363707849884</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.363707849884</v>
       </c>
       <c r="S13" t="n">
-        <v>2527.956438242306</v>
+        <v>2669.1245388072</v>
       </c>
       <c r="T13" t="n">
-        <v>2282.076991820762</v>
+        <v>2423.245092385655</v>
       </c>
       <c r="U13" t="n">
-        <v>2003.643991073867</v>
+        <v>2144.81209163876</v>
       </c>
       <c r="V13" t="n">
-        <v>1716.688482944297</v>
+        <v>1857.856583509191</v>
       </c>
       <c r="W13" t="n">
-        <v>1445.700728967627</v>
+        <v>1585.830179095482</v>
       </c>
       <c r="X13" t="n">
-        <v>1200.308974301039</v>
+        <v>1340.438424428894</v>
       </c>
       <c r="Y13" t="n">
-        <v>972.8893036151474</v>
+        <v>1113.018753743003</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5276,28 +5276,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>1612.575493976557</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>2769.623329187108</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N14" t="n">
-        <v>3895.354312623555</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O14" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5309,19 +5309,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
         <v>793.2056155771595</v>
@@ -5519,46 +5519,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957708</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>777.0165135789957</v>
       </c>
       <c r="D19" t="n">
         <v>614.3171730324585</v>
@@ -5674,49 +5674,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745668</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N19" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580946</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167237</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1368.81651450065</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814758</v>
       </c>
     </row>
     <row r="20">
@@ -5738,61 +5738,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4148.898600262674</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4977.20847509607</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1039.174348374287</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>866.6126368575123</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>700.734644059035</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>530.9766403097722</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>354.2695862715284</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>188.6783112973561</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>188.6783112973561</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354734</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006609</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745699</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.36663430314</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.41112617357</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1230.992967093275</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736206</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751433</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745664</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.754677688392</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449518</v>
+        <v>296.6079193348959</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>131.0166443607236</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1090.187678435287</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>917.6259669185116</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>751.7479741200343</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>581.9899703707715</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>405.2829163325277</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>239.6916413583554</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2026.844126920462</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1509.425967840166</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1282.006297154274</v>
       </c>
     </row>
     <row r="32">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>4729.704604581732</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1074.437378779972</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886292</v>
+        <v>917.1444704207241</v>
       </c>
       <c r="D37" t="n">
-        <v>760.880759503028</v>
+        <v>766.5352807797738</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>612.0460801880381</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>450.6078293073213</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>300.2853574906759</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>175.6519863385774</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>203.8054794101617</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>493.5288879559894</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>926.7037236986426</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1401.152544854248</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1858.376301986584</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2293.010505187058</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2655.482353132092</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2838.640081971117</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2832.491063834015</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2688.518498289538</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2484.86951719645</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2221.705319607082</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1950.01861463504</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1693.261013378858</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1463.138061869797</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1250.987194341433</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7166,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7184,22 +7184,22 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428594</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998901</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832297</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790891</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7321,13 +7321,13 @@
         <v>442.5209799463121</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850157</v>
+        <v>293.329412385016</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7403,10 +7403,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7433,10 +7433,10 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7448,13 +7448,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7555,16 +7555,16 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.329412385016</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>931.9169956339958</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.976961886855</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.976961886855</v>
+        <v>1689.869226339287</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2815.600209775734</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7834,16 +7834,16 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>152.0558298092334</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>395.2263144949848</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>529.239197087388</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>529.2391970873879</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873878</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>68.20459573747576</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>149.0417929543142</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>529.239197087388</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.239197087388</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8620,10 +8620,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>323.1172677405932</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>339.133957034977</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188754</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>616.485024559599</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188754</v>
+        <v>883.8012243385558</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>946.7571087441347</v>
       </c>
       <c r="P14" t="n">
-        <v>239.9071053991111</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,25 +9167,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>137.205594386779</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9893,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,16 +10598,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.93455261497138</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>350.7230603926091</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>524.0123721920322</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>64.39434528462868</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>180.2901426695566</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.028263932667699</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.146865729420711</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973306694</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>2.220053416760734</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>69.71657238081342</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>110.0349065174847</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>2.446659489829329</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,13 +24886,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.090860900556436e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>26.69204554921967</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-2.984279490192421e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-2.913225216616411e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-4.227729277772596e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>836021.1026189266</v>
+        <v>843504.003853527</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>836021.1026189266</v>
+        <v>843504.003853527</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>839249.795764256</v>
+        <v>843504.003853527</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647598.0012161864</v>
+        <v>648623.9512872352</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>843774.4353485926</v>
+        <v>843774.4353485925</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>843774.4353485926</v>
+        <v>843774.4353485925</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857941.2823720032</v>
+        <v>856964.3535049019</v>
       </c>
     </row>
     <row r="14">
@@ -26320,7 +26320,7 @@
         <v>120633.1469753419</v>
       </c>
       <c r="E2" t="n">
-        <v>90981.87670404532</v>
+        <v>91126.01375001116</v>
       </c>
       <c r="F2" t="n">
         <v>118542.9564309043</v>
@@ -26344,7 +26344,7 @@
         <v>118542.9564309043</v>
       </c>
       <c r="M2" t="n">
-        <v>120633.1469753418</v>
+        <v>120489.0099293761</v>
       </c>
       <c r="N2" t="n">
         <v>120633.1469753418</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>32598.54956978531</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105245.2414652916</v>
+        <v>64578.24660199658</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238713</v>
+        <v>113022.8393879885</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>26560.21475442338</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>100830.0540941883</v>
+        <v>65992.2328633224</v>
       </c>
       <c r="N3" t="n">
-        <v>82750.13805526381</v>
+        <v>83137.89408675507</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>166775.6748273582</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>31561.92029321029</v>
+        <v>31611.9219212364</v>
       </c>
       <c r="F4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26448,16 +26448,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>46465.30974654598</v>
+        <v>46096.90712591844</v>
       </c>
       <c r="N4" t="n">
+        <v>55396.20108640299</v>
+      </c>
+      <c r="O4" t="n">
+        <v>55396.20108640299</v>
+      </c>
+      <c r="P4" t="n">
         <v>55396.201086403</v>
-      </c>
-      <c r="O4" t="n">
-        <v>55396.201086403</v>
-      </c>
-      <c r="P4" t="n">
-        <v>55396.20108640301</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>65805.34318291319</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154762</v>
+        <v>53735.11443978419</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>78989.03528831615</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268547.4748774036</v>
+        <v>-316662.8234093651</v>
       </c>
       <c r="C6" t="n">
-        <v>-126356.1742176937</v>
+        <v>-92963.12482532034</v>
       </c>
       <c r="D6" t="n">
-        <v>-144546.4206047148</v>
+        <v>-92963.12482532034</v>
       </c>
       <c r="E6" t="n">
-        <v>-99434.31480600423</v>
+        <v>-59127.12624884301</v>
       </c>
       <c r="F6" t="n">
-        <v>-113915.2600286722</v>
+        <v>-113344.2978321721</v>
       </c>
       <c r="G6" t="n">
-        <v>-298.2341048009839</v>
+        <v>-321.4584441835951</v>
       </c>
       <c r="H6" t="n">
-        <v>-298.2341048009403</v>
+        <v>-321.4584441836099</v>
       </c>
       <c r="I6" t="n">
-        <v>-298.2341048009694</v>
+        <v>-321.4584441836098</v>
       </c>
       <c r="J6" t="n">
-        <v>-111312.6994497912</v>
+        <v>-174972.8071618897</v>
       </c>
       <c r="K6" t="n">
-        <v>-298.2341048009694</v>
+        <v>-321.4584441835953</v>
       </c>
       <c r="L6" t="n">
-        <v>-26858.44885922434</v>
+        <v>-321.4584441836098</v>
       </c>
       <c r="M6" t="n">
-        <v>-105745.3754036531</v>
+        <v>-70590.76687091388</v>
       </c>
       <c r="N6" t="n">
-        <v>-93028.80689241469</v>
+        <v>-93416.56292390595</v>
       </c>
       <c r="O6" t="n">
         <v>-10278.66883715088</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>529.239197087388</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188754</v>
+        <v>883.8012243385557</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.119595212795678</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>104.9433395672836</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>352.4882659314874</v>
+        <v>216.2860177306987</v>
       </c>
       <c r="F4" t="n">
-        <v>396.53304036587</v>
+        <v>394.4592790461896</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672836</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314874</v>
+        <v>216.2860177306987</v>
       </c>
       <c r="N4" t="n">
-        <v>337.8563329288475</v>
+        <v>335.7825716091673</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672836</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314874</v>
+        <v>216.2860177306987</v>
       </c>
       <c r="N4" t="n">
-        <v>396.53304036587</v>
+        <v>394.4592790461896</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>32.93843845549247</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>287.9690884469957</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="U4" t="n">
-        <v>95.46175721694985</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>41.72273759788726</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>362.6006928087619</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>23.65030257151153</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>20.93796140261358</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>212.4557366627693</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27910,16 +27910,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>106.463787770109</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15.54370189082601</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.2197249473431</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-4.234163380415108e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4.479488779907115e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.181774678116199e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.919552682418726e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>15.11611512595168</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>152.0558298092334</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>395.2263144949848</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>529.239197087388</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>529.2391970873879</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873878</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>68.20459573747576</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>149.0417929543142</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>529.239197087388</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.239197087388</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>323.1172677405932</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>339.133957034977</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188754</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>616.485024559599</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188754</v>
+        <v>883.8012243385558</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157518</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,22 +35653,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831382</v>
+        <v>946.7571087441347</v>
       </c>
       <c r="P14" t="n">
-        <v>239.9071053991111</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,25 +35887,25 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080421</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,10 +36054,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165097</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36139,10 +36139,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>137.205594386779</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908459</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080417</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,19 +36604,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37318,16 +37318,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>102.5703425650324</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>292.6499076220482</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>437.5503391339932</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>479.2412334905102</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>461.8421789215522</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>439.0244476772461</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>366.1331797424587</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>185.0078069081055</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,19 +37552,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.93455261497138</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>350.7230603926091</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>524.0123721920322</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
